--- a/DATA_goal/Junction_Flooding_207.xlsx
+++ b/DATA_goal/Junction_Flooding_207.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -453,8 +453,8 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>41639.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.38</v>
+        <v>3.44</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.68</v>
+        <v>2.67</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.65</v>
+        <v>1.26</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>38.64</v>
+        <v>3.86</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.55</v>
+        <v>1.95</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.48</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>184.91</v>
+        <v>18.49</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>35.05</v>
+        <v>3.5</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.74</v>
+        <v>2.27</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.51</v>
+        <v>1.15</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>34.65</v>
+        <v>3.46</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41639.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>50.02</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>40.35</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>27.92</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>20.01</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>21.05</v>
+        <v>2.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.53</v>
+        <v>2.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>267.37</v>
+        <v>26.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.45</v>
+        <v>5.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.62</v>
+        <v>3.36</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.54</v>
+        <v>3.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>62.2</v>
+        <v>6.22</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41639.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.65</v>
+        <v>2.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.49</v>
+        <v>2.05</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>39.25</v>
+        <v>3.93</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>133.47</v>
+        <v>13.35</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.98</v>
+        <v>2.6</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.98</v>
+        <v>3.6</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41639.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.15</v>
+        <v>1.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>53.36</v>
+        <v>5.34</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41639.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>25.26</v>
+        <v>2.53</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>10.35</v>
+        <v>1.04</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>94.51000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>18.65</v>
+        <v>1.86</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>22.84</v>
+        <v>2.28</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41639.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>6.35</v>
+        <v>0.63</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>19.01</v>
+        <v>1.9</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>26.65</v>
+        <v>2.66</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>96.81</v>
+        <v>9.68</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>24.27</v>
+        <v>2.43</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41639.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L8" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>4.86</v>
-      </c>
       <c r="M8" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X8" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>59.06</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>4.25</v>
-      </c>
       <c r="Y8" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41639.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>31.6</v>
+        <v>3.16</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41639.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="G10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I10" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.7</v>
-      </c>
       <c r="J10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="Y10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z10" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.11</v>
-      </c>
       <c r="AA10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_207.xlsx
+++ b/DATA_goal/Junction_Flooding_207.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,22 +443,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -467,10 +467,10 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41639.34027777778</v>
+        <v>44888.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.61</v>
+        <v>0.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.51</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.8</v>
-      </c>
       <c r="K2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.36</v>
+        <v>0.67</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.51</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.43</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.75</v>
+        <v>0.64</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.38</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.49</v>
+        <v>6.63</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.17</v>
+        <v>0.42</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.27</v>
+        <v>0.76</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.78</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.39</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.52</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.7</v>
       </c>
       <c r="AE2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF2" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.62</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>1.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41639.34722222222</v>
+        <v>44888.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.31</v>
+        <v>1.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.17</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.03</v>
+        <v>2.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.21</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.81</v>
+        <v>4.2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.79</v>
+        <v>1.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.86</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.11</v>
+        <v>1.39</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.37</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.99</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>3.35</v>
+        <v>2.23</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.95</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.22</v>
+        <v>3.82</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41639.35416666666</v>
+        <v>44888.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.29</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.56</v>
+        <v>0.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.65</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.3</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.93</v>
+        <v>1.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.47</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.36</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.38</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.33</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.4</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.6</v>
+        <v>1.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41639.36111111111</v>
+        <v>44888.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.51</v>
+        <v>2.16</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.35</v>
+        <v>1.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.1</v>
+        <v>4.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.86</v>
+        <v>3.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.4</v>
+        <v>1.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.92</v>
+        <v>6.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.62</v>
+        <v>2.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.26</v>
+        <v>1.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.37</v>
+        <v>1.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.44</v>
+        <v>1.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.46</v>
+        <v>2.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.54</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.36</v>
+        <v>1.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.34</v>
+        <v>25.57</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.13</v>
+        <v>4.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.37</v>
+        <v>1.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.74</v>
+        <v>3.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.38</v>
+        <v>1.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.88</v>
+        <v>3.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.32</v>
+        <v>1.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.3</v>
+        <v>1.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.35</v>
+        <v>1.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.46</v>
+        <v>2.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.77</v>
+        <v>5.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41639.36805555555</v>
+        <v>44888.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.86</v>
+        <v>21.25</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.62</v>
+        <v>16.26</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.86</v>
+        <v>46.7</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.49</v>
+        <v>38.6</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.67</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.53</v>
+        <v>66.39</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.04</v>
+        <v>26.26</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.45</v>
+        <v>11.86</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.66</v>
+        <v>17.84</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.75</v>
+        <v>19.16</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.79</v>
+        <v>19.83</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.21</v>
+        <v>5.34</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.67</v>
+        <v>16.7</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>24.17</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.58</v>
+        <v>14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>250.08</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.86</v>
+        <v>47.34</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.62</v>
+        <v>15.51</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.24</v>
+        <v>31.81</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.65</v>
+        <v>16.96</v>
       </c>
       <c r="Y6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>2.28</v>
+        <v>60.41</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.34</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41639.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41639.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41639.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41639.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41639.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>42.84</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>35.18</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>53.26</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>227.55</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>42.92</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.07</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>48.06</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.79</v>
+        <v>19.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_207.xlsx
+++ b/DATA_goal/Junction_Flooding_207.xlsx
@@ -446,9 +446,9 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
@@ -456,7 +456,7 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -470,7 +470,7 @@
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44888.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44888.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.25</v>
+        <v>32.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.11</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.2</v>
+        <v>41.99</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.69</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.55</v>
+        <v>175.46</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.35</v>
+        <v>33.55</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.07</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.23</v>
+        <v>22.29</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.76</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.82</v>
+        <v>38.15</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44888.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.83</v>
+        <v>38.3</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44888.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.77</v>
+        <v>47.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.94</v>
+        <v>39.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.38</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.29</v>
+        <v>62.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.96</v>
+        <v>19.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.7</v>
+        <v>17.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.3</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.57</v>
+        <v>255.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.83</v>
+        <v>48.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.19</v>
+        <v>31.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.7</v>
+        <v>57.02</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_207.xlsx
+++ b/DATA_goal/Junction_Flooding_207.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44888.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>14.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.66</v>
+        <v>11.664</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.54</v>
+        <v>32.541</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>27.11</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.07</v>
+        <v>12.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.99</v>
+        <v>41.993</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.69</v>
+        <v>18.694</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.58</v>
+        <v>8.576000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.13</v>
+        <v>13.133</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.07</v>
+        <v>14.073</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.86</v>
+        <v>13.858</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.68</v>
+        <v>3.685</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.61</v>
+        <v>11.613</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.885999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>175.46</v>
+        <v>175.461</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.55</v>
+        <v>33.547</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.07</v>
+        <v>22.073</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>12.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.484</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>22.29</v>
+        <v>22.291</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.77</v>
+        <v>9.773999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.51</v>
+        <v>9.510999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.81</v>
+        <v>10.807</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.76</v>
+        <v>14.758</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.15</v>
+        <v>38.153</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.67</v>
+        <v>6.671</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.56</v>
+        <v>13.557</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44888.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.24</v>
+        <v>3.244</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.94</v>
+        <v>2.938</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>7.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.5</v>
+        <v>6.503</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.26</v>
+        <v>16.256</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.75</v>
+        <v>4.745</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.31</v>
+        <v>2.306</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.56</v>
+        <v>3.565</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.81</v>
+        <v>3.807</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.32</v>
+        <v>3.324</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.837</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>2.69</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.3</v>
+        <v>4.302</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.46</v>
+        <v>2.455</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.199</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>38.3</v>
+        <v>38.297</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>8.714</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.62</v>
+        <v>2.621</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.54</v>
+        <v>5.537</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>3.29</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.32</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.44</v>
+        <v>2.436</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.76</v>
+        <v>2.757</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.96</v>
+        <v>2.964</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.96</v>
+        <v>3.962</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.32</v>
+        <v>15.324</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44888.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.08</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.81</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.76</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.41</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_207.xlsx
+++ b/DATA_goal/Junction_Flooding_207.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -451,25 +451,25 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,7 +967,7 @@
         <v>44888.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.64</v>
+        <v>21.641</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>16.63</v>
@@ -976,94 +976,198 @@
         <v>0.63</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.65</v>
+        <v>47.652</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.42</v>
+        <v>39.416</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.38</v>
+        <v>17.379</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.94</v>
+        <v>62.943</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.85</v>
+        <v>26.846</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.13</v>
+        <v>12.126</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.29</v>
+        <v>18.294</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>19.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.24</v>
+        <v>20.242</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.44</v>
+        <v>5.438</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.04</v>
+        <v>17.038</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.66</v>
+        <v>24.665</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.3</v>
+        <v>14.304</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.74</v>
+        <v>255.744</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.25</v>
+        <v>48.251</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.84</v>
+        <v>15.838</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.37</v>
+        <v>32.371</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.37</v>
+        <v>17.365</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>31.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.09</v>
+        <v>14.091</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.83</v>
+        <v>12.829</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.88</v>
+        <v>14.885</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.61</v>
+        <v>20.611</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.02</v>
+        <v>57.019</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.27</v>
+        <v>9.272</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.79</v>
+        <v>19.793</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44888.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>250.08</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>47.34</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>60.41</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_207.xlsx
+++ b/DATA_goal/Junction_Flooding_207.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -451,25 +451,25 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,7 +967,7 @@
         <v>44888.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.641</v>
+        <v>21.64</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>16.63</v>
@@ -976,198 +976,94 @@
         <v>0.63</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.652</v>
+        <v>47.65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.416</v>
+        <v>39.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.379</v>
+        <v>17.38</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.943</v>
+        <v>62.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.846</v>
+        <v>26.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.126</v>
+        <v>12.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.294</v>
+        <v>18.29</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>19.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.242</v>
+        <v>20.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.438</v>
+        <v>5.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.038</v>
+        <v>17.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.665</v>
+        <v>24.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.304</v>
+        <v>14.3</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.744</v>
+        <v>255.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.251</v>
+        <v>48.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.838</v>
+        <v>15.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.371</v>
+        <v>32.37</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.365</v>
+        <v>17.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.238</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>31.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.091</v>
+        <v>14.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.829</v>
+        <v>12.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.885</v>
+        <v>14.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.611</v>
+        <v>20.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>57.019</v>
+        <v>57.02</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.272</v>
+        <v>9.27</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.793</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44888.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.08</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.81</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.76</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.41</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.39</v>
+        <v>19.79</v>
       </c>
     </row>
   </sheetData>
